--- a/Documentos/Matriz de Pesos.xlsx
+++ b/Documentos/Matriz de Pesos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Fernando Cobo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Fernando Cobo\PycharmProjects\Bot-Viajero\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nodos</t>
   </si>
@@ -61,12 +61,21 @@
   <si>
     <t>10 ++</t>
   </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Pesos Repetidos</t>
+  </si>
+  <si>
+    <t>&lt;== DISTANCIA MAS LARGA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +83,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +132,39 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,32 +172,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,57 +557,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,1795 +690,1820 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>7.85</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>7.8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>14.6</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>4.3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>3.5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>2.35</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>4.5</v>
       </c>
-      <c r="L3" s="3">
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
         <v>3.95</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="7">
         <v>6.7</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="7">
         <v>10.4</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="7">
         <v>6.3</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="7">
         <v>2.1</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7">
         <v>10</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="7">
         <v>6.8</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="7">
         <v>13.2</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="7">
         <v>14.1</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="7">
         <v>3.1</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="7">
         <v>4.2</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA26" si="0">MAX(B3:Y3)</f>
         <v>14.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>7.85</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>7.25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>6.85</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <v>11.7</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <v>5.3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>7.1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>10</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="7">
         <v>4.7</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="7">
         <v>2.4</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="7">
         <v>2.9</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="7">
         <v>4.2</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="7">
         <v>13.8</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="7">
         <v>7.6</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="7">
         <v>9.4</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="7">
         <v>7.75</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="11">
         <f t="shared" si="0"/>
         <v>13.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>7.25</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>14.15</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>4.5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>3.6</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>2.85</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>5</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>3.5</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="7">
         <v>6.8</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="7">
         <v>7.95</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="7">
         <v>10</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="7">
         <v>6.35</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="7">
         <v>2.6</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7">
         <v>9.9</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="7">
         <v>6.8</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="7">
         <v>13.2</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="7">
         <v>14.2</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="7">
         <v>3.95</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="7">
         <v>5.3</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="7">
         <v>3.45</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="11">
         <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>7.8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <v>12.2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <v>11.7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
         <v>4.95</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>9.6</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>3.3</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
         <v>11.65</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="7">
         <v>3.25</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="7">
         <v>6</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="7">
         <v>8.5</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <v>3.8</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="7">
         <v>9.4499999999999993</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7">
         <v>6</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="7">
         <v>14.3</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="7">
         <v>7.7</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="7">
         <v>7.55</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="7">
         <v>3.5</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="7">
         <v>11.7</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="11">
         <f t="shared" si="0"/>
         <v>14.3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>14.6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>6.85</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>14.15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>12.2</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>18.600000000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <v>11.8</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>17</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="7">
         <v>12.9</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
         <v>16.850000000000001</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="7">
         <v>9.65</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="7">
         <v>6.9</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="7">
         <v>4.3</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="7">
         <v>9.5</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="7">
         <v>16.7</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7">
         <v>6.25</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="7">
         <v>20.65</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="7">
         <v>6.4</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="7">
         <v>8.5</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="7">
         <v>17.5</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="7">
         <v>10.9</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="7">
         <v>15.95</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="11">
         <f t="shared" si="0"/>
         <v>20.65</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>4.3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>11.7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>4.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>11.7</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>18.600000000000001</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <v>7.65</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <v>2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
         <v>2.6</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="7">
         <v>10.9</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="7">
         <v>12.3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="7">
         <v>14.4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <v>10.5</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="7">
         <v>2.15</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7">
         <v>14.2</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="7">
         <v>2.7</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="7">
         <v>17.5</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="7">
         <v>18.3</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="7">
         <v>3.3</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="7">
         <v>9.25</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="7">
         <v>3.85</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="11">
         <f t="shared" si="0"/>
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>3.5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>5.3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>3.6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>4.95</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>11.8</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>7.65</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <v>5.8</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
         <v>7.1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="7">
         <v>3.2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="7">
         <v>7.4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="7">
         <v>2.8</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="7">
         <v>5.6</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3">
+      <c r="R9" s="7"/>
+      <c r="S9" s="7">
         <v>6.6</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="7">
         <v>10.3</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="7">
         <v>10.65</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="7">
         <v>5.9</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="7">
         <v>1.7</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="7">
         <v>6.9</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="11">
         <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>2.35</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>2.85</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>9.6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>17</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>5.8</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
         <v>6.3</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
         <v>3.05</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="7">
         <v>8.9</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="7">
         <v>10.5</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="7">
         <v>12.7</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <v>8.6</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="7">
         <v>0.3</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3">
+      <c r="R10" s="7"/>
+      <c r="S10" s="7">
         <v>12.3</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="7">
         <v>4.75</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="7">
         <v>15.5</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="7">
         <v>16.25</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="7">
         <v>1.8</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="8">
         <v>7.3</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="7">
         <v>4</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>4.5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>7.1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>3.3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>12.9</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="9">
         <v>6.3</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
         <v>8.4499999999999993</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="7">
         <v>3.3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="7">
         <v>6</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="7">
         <v>8.6</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="7">
         <v>3.35</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="7">
         <v>6.2</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3">
+      <c r="R11" s="7"/>
+      <c r="S11" s="7">
         <v>7</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="7">
         <v>11</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="7">
         <v>5.8</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="7">
         <v>2</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="7">
         <v>8.5</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="11">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="AA12" s="5">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="AA12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>3.95</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>3.5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>11.65</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>16.850000000000001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>2.6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <v>7.1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>3.05</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="9">
         <v>8.4499999999999993</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="K13" s="9"/>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
         <v>10.3</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="7">
         <v>11.1</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="7">
         <v>12.8</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="7">
         <v>2.9</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7">
         <v>13.2</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="7">
         <v>3.85</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="7">
         <v>16.5</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="7">
         <v>17.649999999999999</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="7">
         <v>4.8499999999999996</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="7">
         <v>1.3</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="11">
         <f t="shared" si="0"/>
         <v>17.649999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="9">
         <v>6.7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>4.7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>6.8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="9">
         <v>3.25</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="9">
         <v>9.65</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="9">
         <v>10.9</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="9">
         <v>3.2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="9">
         <v>8.9</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="9">
         <v>3.3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
         <v>10.3</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
         <v>2.9</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="7">
         <v>5.6</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="7">
         <v>0.65</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3">
+      <c r="R14" s="7"/>
+      <c r="S14" s="7">
         <v>3.65</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="7">
         <v>13.55</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="7">
         <v>6.6</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="7">
         <v>7.4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="7">
         <v>8.85</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="7">
         <v>1.65</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="7">
         <v>10</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="11">
         <f t="shared" si="0"/>
         <v>13.55</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <v>2.4</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="9">
         <v>7.95</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="9">
         <v>6</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="9">
         <v>6.9</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="9">
         <v>12.3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="9">
         <v>10.5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="9">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
         <v>11.1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="9">
         <v>2.9</v>
       </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
         <v>2.7</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="7">
         <v>2.7</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="7">
         <v>10.4</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3">
+      <c r="R15" s="7"/>
+      <c r="S15" s="7">
         <v>2.1</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="7">
         <v>14.75</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="7">
         <v>5.55</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="7">
         <v>7.15</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="7">
         <v>10.85</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="7">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="7">
         <v>10.55</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="11">
         <f t="shared" si="0"/>
         <v>14.75</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="9">
         <v>10.4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="9">
         <v>2.9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="9">
         <v>10</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="9">
         <v>8.5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="9">
         <v>4.3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="9">
         <v>14.4</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="9">
         <v>7.4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="9">
         <v>12.7</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="9">
         <v>8.6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
         <v>12.8</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="9">
         <v>5.6</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="9">
         <v>2.7</v>
       </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <v>5.4</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="7">
         <v>12.5</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3">
+      <c r="R16" s="7"/>
+      <c r="S16" s="7">
         <v>3</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="7">
         <v>5.45</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="7">
         <v>7.5</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="7">
         <v>13.3</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="7">
         <v>6.7</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="7">
         <v>12</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="11">
         <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="9">
         <v>6.3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="9">
         <v>4.2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="9">
         <v>6.35</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="9">
         <v>3.8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="9">
         <v>9.5</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="9">
         <v>10.5</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="9">
         <v>2.8</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="9">
         <v>8.6</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="9">
         <v>3.35</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="9">
         <v>0.65</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="9">
         <v>2.7</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="9">
         <v>5.4</v>
       </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
         <v>8.4499999999999993</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3">
+      <c r="R17" s="7"/>
+      <c r="S17" s="7">
         <v>3.8</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="7">
         <v>13.1</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="7">
         <v>6.9</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="7">
         <v>7.85</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="7">
         <v>8.6</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="7">
         <v>1.5</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="7">
         <v>9.4499999999999993</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="11">
         <f t="shared" si="0"/>
         <v>13.1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <v>2.1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="9">
         <v>2.6</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="9">
         <v>16.7</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="9">
         <v>2.15</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="9">
         <v>5.6</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="9">
         <v>0.3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="9">
         <v>6.2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
         <v>2.9</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="9">
         <v>10.4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="9">
         <v>12.5</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="9">
         <v>8.4499999999999993</v>
       </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3">
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7">
         <v>12.1</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="7">
         <v>4.8499999999999996</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="7">
         <v>15.3</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="7">
         <v>16.100000000000001</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="7">
         <v>2</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="7">
         <v>7.2</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="7">
         <v>3.8</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="11">
         <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="AA19" s="5">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="AA19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>9.9</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>6</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>6.25</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="9">
         <v>14.2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="9">
         <v>6.6</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>12.3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="9">
         <v>7</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
         <v>13.2</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="9">
         <v>3.65</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="9">
         <v>2.1</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="9">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="9">
         <v>3.8</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="9">
         <v>12.1</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="R20" s="9"/>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
         <v>16.7</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="7">
         <v>3.4</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="7">
         <v>5</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="7">
         <v>12.5</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="7">
         <v>5.3</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="7">
         <v>12.65</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="11">
         <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="9">
         <v>6.8</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="9">
         <v>13.8</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>6.8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>14.3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>20.65</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>2.7</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>10.3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="9">
         <v>4.75</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="9">
         <v>11</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
         <v>3.85</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="9">
         <v>13.55</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="9">
         <v>14.75</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="9">
         <v>13.1</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="9">
         <v>4.8499999999999996</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3">
+      <c r="R21" s="9"/>
+      <c r="S21" s="9">
         <v>16.7</v>
       </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
         <v>19.95</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="7">
         <v>20.9</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="7">
         <v>5.8</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="7">
         <v>11.9</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="7">
         <v>4.5</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="11">
         <f t="shared" si="0"/>
         <v>20.9</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
         <v>13.2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="9">
         <v>7.6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="9">
         <v>13.2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="9">
         <v>7.7</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>6.4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>17.5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>15.5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9">
         <v>16.5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="9">
         <v>6.6</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="9">
         <v>5.55</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="9">
         <v>5.45</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="9">
         <v>6.9</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="9">
         <v>15.3</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3">
+      <c r="R22" s="9"/>
+      <c r="S22" s="9">
         <v>3.4</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="9">
         <v>19.95</v>
       </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
         <v>2.15</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="7">
         <v>15.45</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="7">
         <v>8.25</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="7">
         <v>16.05</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="11">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="9">
         <v>14.1</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="9">
         <v>9.4</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="9">
         <v>14.2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="9">
         <v>7.55</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="9">
         <v>8.5</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="9">
         <v>18.3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="9">
         <v>10.65</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="9">
         <v>16.25</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9">
         <v>17.649999999999999</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="9">
         <v>7.4</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="9">
         <v>7.15</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="9">
         <v>7.5</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="9">
         <v>7.85</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="9">
         <v>16.100000000000001</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3">
+      <c r="R23" s="9"/>
+      <c r="S23" s="9">
         <v>5</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="9">
         <v>20.9</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="9">
         <v>2.15</v>
       </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
         <v>16</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="7">
         <v>9</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="7">
         <v>17.350000000000001</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AA23" s="11">
         <f t="shared" si="0"/>
         <v>20.9</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <v>3.1</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="9">
         <v>7.75</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="9">
         <v>3.95</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="9">
         <v>17.5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="9">
         <v>3.3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="9">
         <v>5.9</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="9">
         <v>1.8</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="9">
         <v>5.8</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9">
         <v>4.8499999999999996</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="9">
         <v>8.85</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="9">
         <v>10.85</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="9">
         <v>13.3</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="9">
         <v>8.6</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="9">
         <v>2</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3">
+      <c r="R24" s="9"/>
+      <c r="S24" s="9">
         <v>12.5</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="9">
         <v>5.8</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="9">
         <v>15.45</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="9">
         <v>16</v>
       </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
         <v>7.15</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="7">
         <v>5.8</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" s="11">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="9">
         <v>5.3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="9">
         <v>3.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="9">
         <v>10.9</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="9">
         <v>9.25</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="9">
         <v>1.7</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="10">
         <v>7.3</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="9">
         <v>2</v>
       </c>
-      <c r="L25" s="3">
+      <c r="K25" s="10"/>
+      <c r="L25" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="9">
         <v>1.65</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="9">
         <v>4</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="9">
         <v>6.7</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="9">
         <v>1.5</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="9">
         <v>7.2</v>
       </c>
-      <c r="S25" s="3">
+      <c r="R25" s="10"/>
+      <c r="S25" s="9">
         <v>5.3</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="9">
         <v>11.9</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="9">
         <v>8.25</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="9">
         <v>9</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="9">
         <v>7.15</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7">
         <v>8.65</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA25" s="11">
         <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="9">
         <v>4.2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="9">
         <v>3.45</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="9">
         <v>11.7</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="9">
         <v>15.95</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="9">
         <v>3.85</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="9">
         <v>6.9</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="9">
         <v>4</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="9">
         <v>8.5</v>
       </c>
-      <c r="L26" s="3">
+      <c r="K26" s="10"/>
+      <c r="L26" s="9">
         <v>1.3</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="9">
         <v>10</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="9">
         <v>10.55</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="9">
         <v>12</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="9">
         <v>3.8</v>
       </c>
-      <c r="S26" s="3">
+      <c r="R26" s="10"/>
+      <c r="S26" s="9">
         <v>12.65</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="9">
         <v>4.5</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="9">
         <v>16.05</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="9">
         <v>17.350000000000001</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="9">
         <v>5.8</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="9">
         <v>8.65</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="5">
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="11">
         <f t="shared" si="0"/>
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="AA27" s="13">
+        <f>MAX(AA3:AA26)</f>
+        <v>20.9</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2362,5 +2512,8 @@
     <mergeCell ref="B1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AA3:AA26" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Documentos/Matriz de Pesos.xlsx
+++ b/Documentos/Matriz de Pesos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Fernando Cobo\PycharmProjects\Bot-Viajero\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Dropbox\Universidad\VI Cuatrimestre\Servicios Web\Proyectos\#2\Bot-Viajero\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -220,9 +220,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,6 +235,9 @@
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,32 +580,32 @@
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
@@ -694,79 +694,79 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
         <v>7.85</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>7.8</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>14.6</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>4.3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>3.5</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>2.35</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>4.5</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>3.95</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>6.7</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>10.4</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>6.3</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>2.1</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6">
         <v>10</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>6.8</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>13.2</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>14.1</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>3.1</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>4.2</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA26" si="0">MAX(B3:Y3)</f>
         <v>14.6</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -774,79 +774,79 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>7.85</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>7.25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>8</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>6.85</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>11.7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>5.3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>10</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>7.1</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>10</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>4.7</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>2.4</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>2.9</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>4.2</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>13.8</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <v>7.6</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>9.4</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <v>7.75</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="10">
         <f t="shared" si="0"/>
         <v>13.8</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -854,75 +854,75 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>7.25</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>14.15</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>4.5</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>3.6</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>2.85</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>5</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>3.5</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>6.8</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>7.95</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>10</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>6.35</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>2.6</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6">
         <v>9.9</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>6.8</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>13.2</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>14.2</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>3.95</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>5.3</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>3.45</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="10">
         <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
@@ -931,75 +931,75 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>7.8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>12.2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>11.7</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>4.95</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>9.6</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>3.3</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>11.65</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>3.25</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>6</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>8.5</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>3.8</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>9.4499999999999993</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7">
+      <c r="R6" s="6"/>
+      <c r="S6" s="6">
         <v>6</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>14.3</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>7.7</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>7.55</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>3.5</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>11.7</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="10">
         <f t="shared" si="0"/>
         <v>14.3</v>
       </c>
@@ -1008,75 +1008,75 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>14.6</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>6.85</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>14.15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>12.2</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>11.8</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>17</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>12.9</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>16.850000000000001</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>9.65</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>6.9</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>4.3</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>9.5</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>16.7</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6">
         <v>6.25</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>20.65</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>6.4</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>8.5</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>17.5</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>10.9</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>15.95</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="10">
         <f t="shared" si="0"/>
         <v>20.65</v>
       </c>
@@ -1085,75 +1085,75 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>4.3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>11.7</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4.5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>11.7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>7.65</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>2.6</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>10.9</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>12.3</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>14.4</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>10.5</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>2.15</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6">
         <v>14.2</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>2.7</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>17.5</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>18.3</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>3.3</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>9.25</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>3.85</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="10">
         <f t="shared" si="0"/>
         <v>18.600000000000001</v>
       </c>
@@ -1162,75 +1162,75 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>3.5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>5.3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>3.6</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>4.95</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>11.8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>7.65</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <v>5.8</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>7.1</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>3.2</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>7.4</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>2.8</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>5.6</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7">
+      <c r="R9" s="6"/>
+      <c r="S9" s="6">
         <v>6.6</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>10.3</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>10.65</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>5.9</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>1.7</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <v>6.9</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="10">
         <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
@@ -1239,75 +1239,75 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2.35</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2.85</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>9.6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>17</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>5.8</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>6.3</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>3.05</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>8.9</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>10.5</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>12.7</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>8.6</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>0.3</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
         <v>12.3</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>4.75</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>15.5</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <v>16.25</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>1.8</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <v>7.3</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="6">
         <v>4</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1316,75 +1316,75 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>4.5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>7.1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>3.3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>12.9</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>6.3</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>8.4499999999999993</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>3.3</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>6</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>8.6</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>3.35</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>6.2</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7">
+      <c r="R11" s="6"/>
+      <c r="S11" s="6">
         <v>7</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>11</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>5.8</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>2</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>8.5</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="10">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
@@ -1393,33 +1393,33 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="AA12" s="11">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1428,75 +1428,75 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>3.95</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>3.5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>11.65</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>16.850000000000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>2.6</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>7.1</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>3.05</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>8.4499999999999993</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="K13" s="8"/>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
         <v>10.3</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>11.1</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>12.8</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>2.9</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7">
+      <c r="R13" s="6"/>
+      <c r="S13" s="6">
         <v>13.2</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>3.85</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>16.5</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <v>17.649999999999999</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <v>4.8499999999999996</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="6">
         <v>1.3</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="10">
         <f t="shared" si="0"/>
         <v>17.649999999999999</v>
       </c>
@@ -1505,75 +1505,75 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>6.7</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>4.7</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>6.8</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>3.25</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>9.65</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>10.9</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>3.2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>8.9</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>3.3</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
         <v>10.3</v>
       </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
         <v>2.9</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>5.6</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>0.65</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6">
         <v>3.65</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>13.55</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>6.6</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <v>7.4</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <v>8.85</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>1.65</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="6">
         <v>10</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="10">
         <f t="shared" si="0"/>
         <v>13.55</v>
       </c>
@@ -1582,75 +1582,75 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>2.4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>7.95</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>6.9</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>12.3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>10.5</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>6</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8">
         <v>11.1</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>2.9</v>
       </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
         <v>2.7</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>2.7</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>10.4</v>
       </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7">
+      <c r="R15" s="6"/>
+      <c r="S15" s="6">
         <v>2.1</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <v>14.75</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <v>5.55</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <v>7.15</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <v>10.85</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <v>4</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="6">
         <v>10.55</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="10">
         <f t="shared" si="0"/>
         <v>14.75</v>
       </c>
@@ -1659,75 +1659,75 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>10.4</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>2.9</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>10</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>8.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>4.3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>14.4</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>7.4</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>12.7</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>8.6</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
         <v>12.8</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>5.6</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <v>2.7</v>
       </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
         <v>5.4</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>12.5</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7">
+      <c r="R16" s="6"/>
+      <c r="S16" s="6">
         <v>3</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>5.45</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>7.5</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <v>13.3</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <v>6.7</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="6">
         <v>12</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16" s="10">
         <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
@@ -1736,75 +1736,75 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>6.3</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>4.2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>6.35</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>3.8</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>9.5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>10.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>2.8</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>8.6</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>3.35</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>0.65</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>2.7</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <v>5.4</v>
       </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
         <v>8.4499999999999993</v>
       </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7">
+      <c r="R17" s="6"/>
+      <c r="S17" s="6">
         <v>3.8</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>13.1</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>6.9</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>7.85</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <v>8.6</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <v>1.5</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="6">
         <v>9.4499999999999993</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17" s="10">
         <f t="shared" si="0"/>
         <v>13.1</v>
       </c>
@@ -1813,75 +1813,75 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>2.1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>2.6</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>9.4499999999999993</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>16.7</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>2.15</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>5.6</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>0.3</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>6.2</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
         <v>2.9</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>10.4</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="8">
         <v>12.5</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>8.4499999999999993</v>
       </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7">
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6">
         <v>12.1</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="6">
         <v>4.8499999999999996</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="6">
         <v>15.3</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="6">
         <v>2</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="6">
         <v>7.2</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="6">
         <v>3.8</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA18" s="10">
         <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
@@ -1890,33 +1890,33 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="AA19" s="11">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="AA19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1925,75 +1925,75 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>10</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>9.9</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>6</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>6.25</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>14.2</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>6.6</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>12.3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>7</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
         <v>13.2</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>3.65</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>2.1</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>3</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>3.8</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="8">
         <v>12.1</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
+      <c r="R20" s="8"/>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
         <v>16.7</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="6">
         <v>3.4</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="6">
         <v>5</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="6">
         <v>12.5</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="6">
         <v>5.3</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="6">
         <v>12.65</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA20" s="10">
         <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
@@ -2002,75 +2002,75 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>6.8</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>13.8</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>6.8</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>14.3</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>20.65</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>2.7</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>10.3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>4.75</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>11</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8">
         <v>3.85</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>13.55</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>14.75</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>16.600000000000001</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <v>13.1</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="8">
         <v>4.8499999999999996</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9">
+      <c r="R21" s="8"/>
+      <c r="S21" s="8">
         <v>16.7</v>
       </c>
-      <c r="T21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
         <v>19.95</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="6">
         <v>20.9</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="6">
         <v>5.8</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="6">
         <v>11.9</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="6">
         <v>4.5</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA21" s="10">
         <f t="shared" si="0"/>
         <v>20.9</v>
       </c>
@@ -2079,75 +2079,75 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>13.2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>7.6</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>13.2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>7.7</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>6.4</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>17.5</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>15.5</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8">
         <v>16.5</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>6.6</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>5.55</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <v>5.45</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <v>6.9</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="8">
         <v>15.3</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9">
+      <c r="R22" s="8"/>
+      <c r="S22" s="8">
         <v>3.4</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <v>19.95</v>
       </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
         <v>2.15</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="6">
         <v>15.45</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="6">
         <v>8.25</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="6">
         <v>16.05</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA22" s="10">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
@@ -2156,75 +2156,75 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>14.1</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>9.4</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>14.2</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>7.55</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>8.5</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>18.3</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>10.65</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>16.25</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
         <v>17.649999999999999</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>7.4</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>7.15</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <v>7.5</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <v>7.85</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9">
+      <c r="R23" s="8"/>
+      <c r="S23" s="8">
         <v>5</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <v>20.9</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="8">
         <v>2.15</v>
       </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
         <v>16</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="6">
         <v>9</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="6">
         <v>17.350000000000001</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA23" s="10">
         <f t="shared" si="0"/>
         <v>20.9</v>
       </c>
@@ -2233,75 +2233,75 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>3.1</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>7.75</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>3.95</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>17.5</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>3.3</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>5.9</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>1.8</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>5.8</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8">
         <v>4.8499999999999996</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>8.85</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>10.85</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="8">
         <v>13.3</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="8">
         <v>8.6</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="8">
         <v>2</v>
       </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9">
+      <c r="R24" s="8"/>
+      <c r="S24" s="8">
         <v>12.5</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <v>5.8</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <v>15.45</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="8">
         <v>16</v>
       </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7">
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="6">
         <v>7.15</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="6">
         <v>5.8</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AA24" s="10">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
@@ -2310,75 +2310,75 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>5.3</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>3.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>10.9</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>9.25</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>1.7</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>7.3</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>2</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="9">
+      <c r="K25" s="9"/>
+      <c r="L25" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>1.65</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <v>4</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <v>6.7</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <v>1.5</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="8">
         <v>7.2</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="9">
+      <c r="R25" s="9"/>
+      <c r="S25" s="8">
         <v>5.3</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="8">
         <v>11.9</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="8">
         <v>8.25</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="8">
         <v>9</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="8">
         <v>7.15</v>
       </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="7">
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
         <v>8.65</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA25" s="10">
         <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
@@ -2387,82 +2387,82 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>4.2</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>3.45</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>11.7</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>15.95</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>3.85</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>6.9</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>4</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>8.5</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="9">
+      <c r="K26" s="9"/>
+      <c r="L26" s="8">
         <v>1.3</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <v>10</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <v>10.55</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="8">
         <v>12</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="8">
         <v>9.4499999999999993</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="8">
         <v>3.8</v>
       </c>
-      <c r="R26" s="10"/>
-      <c r="S26" s="9">
+      <c r="R26" s="9"/>
+      <c r="S26" s="8">
         <v>12.65</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="8">
         <v>4.5</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="8">
         <v>16.05</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="8">
         <v>17.350000000000001</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="8">
         <v>5.8</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="8">
         <v>8.65</v>
       </c>
-      <c r="Y26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="11">
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10">
         <f t="shared" si="0"/>
         <v>17.350000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="AA27" s="13">
+      <c r="AA27" s="12">
         <f>MAX(AA3:AA26)</f>
         <v>20.9</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
     </row>
